--- a/coin_topic_dist.xlsx
+++ b/coin_topic_dist.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS.PIESC\OneDrive - McGill University\Desktop\MMA2022\Winter 1 2022\Enterprise Data Science &amp; ML in Production\Assignments\Causalml\Text_Analytics_Group_Work\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA3AA9B-FF8D-4024-A23C-DE6222DA0592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -19,25 +25,10 @@
     <t>Coin</t>
   </si>
   <si>
-    <t>topic_0</t>
-  </si>
-  <si>
-    <t>topic_1</t>
-  </si>
-  <si>
-    <t>topic_2</t>
-  </si>
-  <si>
-    <t>topic_3</t>
-  </si>
-  <si>
     <t>Bitcoin</t>
   </si>
   <si>
     <t>CRO</t>
-  </si>
-  <si>
-    <t>Doge</t>
   </si>
   <si>
     <t>Ethereum</t>
@@ -45,12 +36,30 @@
   <si>
     <t>Shiba</t>
   </si>
+  <si>
+    <t>NFTs</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Cryptocurrency trends</t>
+  </si>
+  <si>
+    <t>Dogecoin</t>
+  </si>
+  <si>
+    <t>Other coins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +69,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,21 +115,4680 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bitcoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>NFTs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Social</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cryptocurrency trends</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other coins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.15467363731073991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1496588079218058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48346858978458451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2121989649828703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5C0-47DB-BE92-3B7691475F4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="360"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CRO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5254-428D-9D57-A3E38A5129F5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5254-428D-9D57-A3E38A5129F5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5254-428D-9D57-A3E38A5129F5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5254-428D-9D57-A3E38A5129F5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>NFTs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Social</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cryptocurrency trends</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other coins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2693043678327024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11439148294816689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28486328773586123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33144086148326868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5254-428D-9D57-A3E38A5129F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="360"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dogecoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-749C-48AF-B50B-AC9349546A6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-749C-48AF-B50B-AC9349546A6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-749C-48AF-B50B-AC9349546A6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-749C-48AF-B50B-AC9349546A6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>NFTs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Social</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cryptocurrency trends</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other coins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1296360581260321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27460556343333731</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37385617909955671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.221902199341074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-749C-48AF-B50B-AC9349546A6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="360"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ethereum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6CB9-45B6-AAA3-FFC65243AB39}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6CB9-45B6-AAA3-FFC65243AB39}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6CB9-45B6-AAA3-FFC65243AB39}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6CB9-45B6-AAA3-FFC65243AB39}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>NFTs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Social</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cryptocurrency trends</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other coins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.35422315458031362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2483758586293745E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40280153166831612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17049155516507561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6CB9-45B6-AAA3-FFC65243AB39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="360"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shiba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B200-40DF-AE3A-D064E1C080F3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B200-40DF-AE3A-D064E1C080F3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B200-40DF-AE3A-D064E1C080F3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B200-40DF-AE3A-D064E1C080F3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>NFTs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Social</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cryptocurrency trends</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other coins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1934275250128632</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29005038862217891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31456945120364421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20195263516131351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B200-40DF-AE3A-D064E1C080F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="360"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A12A45E-EB16-4083-988B-33D81F8EFB06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A85CE45-4689-46C8-861B-945B65DDB379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63237FA-7528-4596-BCA8-71F05B6EB295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C151006-8CF1-4B91-B0C3-2481278D0545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94124146-9D44-4A66-AA34-E5E286E2AF9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -159,7 +4834,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +4866,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +4918,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,116 +5111,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="B2" s="2">
+        <v>0.15467363731073991</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0.1546736373107399</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.1496588079218058</v>
       </c>
-      <c r="D2">
-        <v>0.4834685897845845</v>
+      <c r="D2" s="2">
+        <v>0.48346858978458451</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.2121989649828703</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.2693043678327024</v>
       </c>
-      <c r="C3">
-        <v>0.1143914829481669</v>
+      <c r="C3" s="2">
+        <v>0.11439148294816689</v>
       </c>
-      <c r="D3">
-        <v>0.2848632877358612</v>
+      <c r="D3" s="2">
+        <v>0.28486328773586123</v>
       </c>
-      <c r="E3">
-        <v>0.3314408614832687</v>
+      <c r="E3" s="2">
+        <v>0.33144086148326868</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.1296360581260321</v>
       </c>
-      <c r="C4">
-        <v>0.2746055634333373</v>
+      <c r="C4" s="2">
+        <v>0.27460556343333731</v>
       </c>
-      <c r="D4">
-        <v>0.3738561790995567</v>
+      <c r="D4" s="2">
+        <v>0.37385617909955671</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.221902199341074</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.3542231545803136</v>
+      <c r="B5" s="2">
+        <v>0.35422315458031362</v>
       </c>
-      <c r="C5">
-        <v>0.07248375858629375</v>
+      <c r="C5" s="2">
+        <v>7.2483758586293745E-2</v>
       </c>
-      <c r="D5">
-        <v>0.4028015316683161</v>
+      <c r="D5" s="2">
+        <v>0.40280153166831612</v>
       </c>
-      <c r="E5">
-        <v>0.1704915551650756</v>
+      <c r="E5" s="2">
+        <v>0.17049155516507561</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.1934275250128632</v>
       </c>
-      <c r="C6">
-        <v>0.2900503886221789</v>
+      <c r="C6" s="2">
+        <v>0.29005038862217891</v>
       </c>
-      <c r="D6">
-        <v>0.3145694512036442</v>
+      <c r="D6" s="2">
+        <v>0.31456945120364421</v>
       </c>
-      <c r="E6">
-        <v>0.2019526351613135</v>
+      <c r="E6" s="2">
+        <v>0.20195263516131351</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>